--- a/HoMM3-Units-file_neutral_cove_v2.xlsx
+++ b/HoMM3-Units-file_neutral_cove_v2.xlsx
@@ -330,6 +330,136 @@
         </r>
       </text>
     </comment>
+    <comment ref="M21" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">RD:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>С учётом изменений HotA 1.5.0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E22" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">RD:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>С учётом изменений HotA 1.5.0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E23" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>RD:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+С учётом изменений HotA 1.5.0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L23" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">RD:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>С учётом изменений HotA 1.5.0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M23" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">RD:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>С учётом изменений HotA 1.5.0</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="O25" authorId="0" shapeId="0">
       <text>
         <r>
@@ -353,6 +483,110 @@
           </rPr>
           <t xml:space="preserve">
 При количествах от 10-15 Ассид почти всегда убивается хотя бы одно существо в стеке, из-за чего срабатывает Кровожадность. Потому считаем, что двойная атака тут есть.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M26" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">RD:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>С учётом изменений HotA 1.5.0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M27" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">RD:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>С учётом изменений HotA 1.5.0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G29" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>RD:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+С учётом изменений HotA 1.5.0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H29" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">RD:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>С учётом изменений HotA 1.5.0</t>
         </r>
       </text>
     </comment>
@@ -1160,7 +1394,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W20" sqref="W20"/>
+      <selection pane="bottomRight" activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -2427,7 +2661,7 @@
         <v>4</v>
       </c>
       <c r="M21" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N21" s="3">
         <v>7</v>
@@ -2465,7 +2699,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="3">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -2527,7 +2761,7 @@
         <v>2</v>
       </c>
       <c r="E23" s="3">
-        <v>300</v>
+        <v>375</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
@@ -2548,10 +2782,10 @@
         <v>7</v>
       </c>
       <c r="L23" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M23" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N23" s="3">
         <v>7</v>
@@ -2737,7 +2971,7 @@
         <v>12</v>
       </c>
       <c r="M26" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N26" s="3">
         <v>3</v>
@@ -2799,7 +3033,7 @@
         <v>12</v>
       </c>
       <c r="M27" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N27" s="3">
         <v>3</v>
@@ -2905,10 +3139,10 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H29" s="3">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I29" s="3">
         <v>90</v>

--- a/HoMM3-Units-file_neutral_cove_v2.xlsx
+++ b/HoMM3-Units-file_neutral_cove_v2.xlsx
@@ -668,12 +668,38 @@
         </r>
       </text>
     </comment>
+    <comment ref="T34" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>RD:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Удача</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="55">
   <si>
     <t>Атака</t>
   </si>
@@ -835,6 +861,9 @@
   </si>
   <si>
     <t>Фангарм</t>
+  </si>
+  <si>
+    <t>Лепрекон</t>
   </si>
 </sst>
 </file>
@@ -1391,10 +1420,10 @@
   <dimension ref="A1:AE127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L24" sqref="L24"/>
+      <selection pane="bottomRight" activeCell="R31" sqref="R31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -3110,7 +3139,7 @@
         <v>0</v>
       </c>
       <c r="R28" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S28" s="3">
         <v>0</v>
@@ -3172,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="R29" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S29" s="3">
         <v>0</v>
@@ -3423,26 +3452,62 @@
       <c r="Y33" s="1"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A34" s="8"/>
-      <c r="B34" s="5"/>
+      <c r="A34" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="C34" s="17"/>
       <c r="D34" s="4"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="4"/>
+      <c r="E34" s="3">
+        <v>100</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0</v>
+      </c>
+      <c r="G34" s="3">
+        <v>8</v>
+      </c>
+      <c r="H34" s="3">
+        <v>5</v>
+      </c>
+      <c r="I34" s="3">
+        <v>15</v>
+      </c>
+      <c r="J34" s="3">
+        <v>3</v>
+      </c>
+      <c r="K34" s="3">
+        <v>5</v>
+      </c>
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>5</v>
+      </c>
+      <c r="N34" s="3">
+        <v>9</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>1</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="4">
+        <v>1</v>
+      </c>
       <c r="Y34" s="1"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.15">
